--- a/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA312023-F003-4FBE-9C58-A4B5FB8C0D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBDA49F-9850-411A-BCB7-8D12F8BBE229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32250" yWindow="2265" windowWidth="24555" windowHeight="12435" xr2:uid="{30DD2B84-BF87-4E0F-B8D9-76651960902B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30DD2B84-BF87-4E0F-B8D9-76651960902B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>Review Date</t>
   </si>
   <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>TOWNSHIP</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
   </si>
 </sst>
 </file>
@@ -487,43 +487,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF95FE24-49B0-465B-89D2-97E94D69EF60}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -535,49 +537,49 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Documents\edited_town_close_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBDA49F-9850-411A-BCB7-8D12F8BBE229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C602AD46-EDC0-443B-97F0-04DEFEFB0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30DD2B84-BF87-4E0F-B8D9-76651960902B}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{30DD2B84-BF87-4E0F-B8D9-76651960902B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,9 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF95FE24-49B0-465B-89D2-97E94D69EF60}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C602AD46-EDC0-443B-97F0-04DEFEFB0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0991F0D5-772D-483E-A540-EEAC7D79EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{30DD2B84-BF87-4E0F-B8D9-76651960902B}"/>
   </bookViews>
@@ -497,8 +497,8 @@
     <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.109375" style="2" customWidth="1"/>

--- a/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
+++ b/dbt/export/templates/qc.vw_report_town_close_ovrrcnlds_to_review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecochr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miwagne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA312023-F003-4FBE-9C58-A4B5FB8C0D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0991F0D5-772D-483E-A540-EEAC7D79EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32250" yWindow="2265" windowWidth="24555" windowHeight="12435" xr2:uid="{30DD2B84-BF87-4E0F-B8D9-76651960902B}"/>
+    <workbookView xWindow="-33945" yWindow="4005" windowWidth="27765" windowHeight="9525" xr2:uid="{30DD2B84-BF87-4E0F-B8D9-76651960902B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>Review Date</t>
   </si>
   <si>
-    <t>2024 BMV</t>
-  </si>
-  <si>
-    <t>2023 BMV</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>TOWNSHIP</t>
+  </si>
+  <si>
+    <t>Curr. Year BMV</t>
+  </si>
+  <si>
+    <t>Prior Year BMV</t>
   </si>
 </sst>
 </file>
@@ -489,41 +489,41 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -535,49 +535,49 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
